--- a/SeleniumKeywordDriverFramework/testcase/dataEngine.xlsx
+++ b/SeleniumKeywordDriverFramework/testcase/dataEngine.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC9E5AC-058E-458B-9785-6C5B6D640206}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102F7B2A-852D-4217-8777-90930B062E26}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Cases" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+  <si>
+    <t>Test ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestScenario ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action_Keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入测试服务器地址，回车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击登录链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在用户名输入框输入用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在密码输入框输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击登录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openBrowser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>TS_002</t>
   </si>
@@ -37,74 +94,75 @@
     <t>TS_006</t>
   </si>
   <si>
-    <t>Test ID</t>
-  </si>
-  <si>
-    <t>TestScenario ID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Page Object</t>
-  </si>
-  <si>
-    <t>Action_Keyword</t>
-  </si>
-  <si>
-    <t>Login_01</t>
-  </si>
-  <si>
-    <t>TS_001</t>
-  </si>
-  <si>
-    <t>启动浏览器</t>
-  </si>
-  <si>
-    <t>openBrowser</t>
-  </si>
-  <si>
-    <t>输入测试服务器地址，回车</t>
-  </si>
-  <si>
-    <t>openUrl</t>
-  </si>
-  <si>
-    <t>点击登录链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>loginLink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginUsernameInputbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginPasswordInputbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginSubmitBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>click</t>
-  </si>
-  <si>
-    <t>在用户名输入框输入用户名</t>
-  </si>
-  <si>
-    <t>loginUsernameInputbox</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>在密码输入框输入密码</t>
-  </si>
-  <si>
-    <t>loginPasswordInputbox</t>
-  </si>
-  <si>
-    <t>点击登录按钮</t>
-  </si>
-  <si>
-    <t>loginSubmitBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入关键字检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputUsername</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +175,21 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -155,9 +228,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -441,7 +520,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -454,121 +533,176 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927D3923-61E2-4429-9568-4BACDBEFFC71}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>